--- a/literature/Literature_legacy_v0.5.xlsx
+++ b/literature/Literature_legacy_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03954508-F298-2D43-8371-880C11BB8C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002A013-AF4E-A44C-9E6D-914815DD4742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20580" activeTab="3" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20520" activeTab="1" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="tradeoff" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="305">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -943,6 +943,15 @@
   </si>
   <si>
     <t>Doughty et al.</t>
+  </si>
+  <si>
+    <t>Trade-off Mechanisms Shaping the Diversity of Bacteria </t>
+  </si>
+  <si>
+    <t>Ferenci</t>
+  </si>
+  <si>
+    <t>Trends in Microbiology</t>
   </si>
 </sst>
 </file>
@@ -1395,14 +1404,14 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="28.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" customWidth="1"/>
     <col min="4" max="4" width="96.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="29" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="5"/>
@@ -1488,6 +1497,20 @@
       </c>
       <c r="D18" s="5" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1522,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8617F-1B8A-414B-A808-979D5AD85FDA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1697,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -2562,7 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3188,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>

--- a/literature/Literature_legacy_v0.5.xlsx
+++ b/literature/Literature_legacy_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002A013-AF4E-A44C-9E6D-914815DD4742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB5609-E549-CA44-9E68-0DE9720CA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20520" activeTab="1" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20520" activeTab="3" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="tradeoff" sheetId="7" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8617F-1B8A-414B-A808-979D5AD85FDA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1720,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -3042,7 +3042,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -3202,6 +3202,7 @@
     <hyperlink ref="F15" r:id="rId4" xr:uid="{5D984EE0-4FF2-0B4A-AEA6-394E5B115B2D}"/>
     <hyperlink ref="F27" r:id="rId5" xr:uid="{36122C8B-DA1E-1243-9B56-4748518524AC}"/>
     <hyperlink ref="F20" r:id="rId6" tooltip="Persistent link using digital object identifier" xr:uid="{FF58C589-4824-E044-B10F-8E917B496677}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{445C325A-292B-5B4D-87C0-A01A675498B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3211,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>

--- a/literature/Literature_legacy_v0.5.xlsx
+++ b/literature/Literature_legacy_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB5609-E549-CA44-9E68-0DE9720CA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0280B2-6A47-9B44-8EBB-DE74BA67879E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20520" activeTab="3" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20520" activeTab="5" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
     <sheet name="tradeoff" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="306">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>Trends in Microbiology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1717765115</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1498,6 +1501,12 @@
       <c r="D18" s="5" t="s">
         <v>209</v>
       </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
@@ -1536,6 +1545,7 @@
     <hyperlink ref="F10" r:id="rId2" xr:uid="{978E1C45-F71F-CE4B-AEBB-B3E59C8DFABD}"/>
     <hyperlink ref="F11" r:id="rId3" xr:uid="{3324B99C-F5B4-FA45-A78E-1B43C19963F8}"/>
     <hyperlink ref="F22" r:id="rId4" xr:uid="{77FB1343-994A-E345-ADB1-8CB81BD1717C}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{310679A7-F29A-6E4B-87CE-92595748AE93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1546,7 +1556,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -2585,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3212,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
